--- a/biology/Botanique/Tetragonidiaceae/Tetragonidiaceae.xlsx
+++ b/biology/Botanique/Tetragonidiaceae/Tetragonidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tetragonidiaceae sont une famille d'algues de l'embranchement des Cryptista, de la classe des Cryptophyceae et de l’ordre des Tetragonidiales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Tetragonidium, composé du préfixe tetra-, quatre, et du suffixe -goni, angle, littéralement « quatre angles », en référence à la forme tétraédrique de cet organisme.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Tetragonidium est constitué de cellules tétraédriques minuscules et libres ; à paroi cellulosique, épaissie le long des marges et des angles ; avec un seul chloroplaste brun, réticulé, avec un pyrénoïde et de l'amidon. Le noyau et gros et excentrique (non centré dans la cellule).
-La reproduction est faite par production de zoospores « de type Cryptochrysis » (Cryptophyceae de la famille des Cryptochrysidaceae), dorsiventrales, faiblement sillonnées au milieu, munies de deux flagelles subapicaux ; la zoospore est mobiles pendant une courte période, puis elle s'installe au moyen d'une paroi mince pour former à nouveau des cellules tétraédriques[1].
+La reproduction est faite par production de zoospores « de type Cryptochrysis » (Cryptophyceae de la famille des Cryptochrysidaceae), dorsiventrales, faiblement sillonnées au milieu, munies de deux flagelles subapicaux ; la zoospore est mobiles pendant une courte période, puis elle s'installe au moyen d'une paroi mince pour former à nouveau des cellules tétraédriques.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Tetragonidium a été découverte en eau douce, dans de petits étangs d'eau propre[1], dans des prairies marécageuses autour de la ville de Franzensbad (actuelle République tchèque)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Tetragonidium a été découverte en eau douce, dans de petits étangs d'eau propre, dans des prairies marécageuses autour de la ville de Franzensbad (actuelle République tchèque).
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (5 septembre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (5 septembre 2022) :
 Bjornbergiella C.E.M.Bicudo, 1966
 Tetragonidium Pascher, 1914</t>
         </is>
@@ -637,9 +657,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Tetragonidiaceae Bourrelly ex P.C.Silva[1], 1980[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Tetragonidiaceae Bourrelly ex P.C.Silva, 1980.
 </t>
         </is>
       </c>
